--- a/data/trans_dic/P70A05_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A05_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,49%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>22,21; 38,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>7,35; 23,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>18,3; 30,65</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>50,73; 63,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>43,01; 60,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>49,8; 60,3</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,42%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>28,26; 48,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>9,52; 34,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>24,98; 41,21</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>21,23; 36,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>14,98; 31,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>20,76; 31,95</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,46%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>58,45; 78,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>30,8; 67,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>55,45; 72,26</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>29,24; 49,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>9,88; 31,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>24,34; 40,45</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,4%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>50,44; 63,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>34,84; 53,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>46,82; 57,81</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,81%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>60,96; 70,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>47,57; 61,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>58,09; 65,81</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,19%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>50,24; 55,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>35,53; 42,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>46,1; 50,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A05_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A05_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,21; 38,99</t>
+          <t>23,07; 39,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 23,03</t>
+          <t>7,13; 22,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 30,65</t>
+          <t>17,44; 30,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,73; 63,51</t>
+          <t>50,35; 62,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,01; 60,99</t>
+          <t>41,06; 60,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,8; 60,3</t>
+          <t>49,89; 60,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 48,39</t>
+          <t>27,57; 47,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 34,36</t>
+          <t>9,37; 34,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,98; 41,21</t>
+          <t>25,06; 41,13</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 36,7</t>
+          <t>20,72; 35,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 31,53</t>
+          <t>14,96; 32,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,76; 31,95</t>
+          <t>20,85; 32,11</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,45; 78,09</t>
+          <t>58,3; 77,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,8; 67,13</t>
+          <t>32,09; 69,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,45; 72,26</t>
+          <t>55,15; 72,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,24; 49,91</t>
+          <t>29,54; 50,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 31,18</t>
+          <t>9,53; 30,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,34; 40,45</t>
+          <t>24,47; 40,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50,44; 63,82</t>
+          <t>49,96; 63,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,84; 53,97</t>
+          <t>34,39; 53,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,82; 57,81</t>
+          <t>46,98; 58,25</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>60,96; 70,06</t>
+          <t>60,12; 69,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,57; 61,26</t>
+          <t>46,57; 60,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,09; 65,81</t>
+          <t>58,14; 65,7</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>50,24; 55,43</t>
+          <t>50,15; 55,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,53; 42,69</t>
+          <t>34,86; 42,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>46,1; 50,3</t>
+          <t>46,04; 50,35</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene un comité de seguridad y salud o bien delegados de prevención en su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36637</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48397</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27547; 47216</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6180; 19097</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35932; 61940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>146004</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>63278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>209282</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>129020; 161403</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50827; 74589</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>189578; 229054</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37445</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7922</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45367</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27162; 46674</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3878; 14333</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35062; 57554</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42187</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20454</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62641</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31090; 53097</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13581; 29533</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50209; 77319</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69643</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16016</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>58690; 78518</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10336; 22253</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73287; 96305</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35504</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9259</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44763</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>26811; 45419</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4712; 15236</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34306; 56313</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>136549</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50570</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>187119</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>120001; 151774</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>40194; 62796</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>167745; 207976</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>277981</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>113822</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>391803</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>254991; 296757</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>97682; 127119</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>368490; 416461</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>781950</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>293080</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1075030</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>742141; 820532</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>261712; 319789</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1026978; 1123227</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>